--- a/Code/Results/Cases/Case_3_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8542236232655966</v>
+        <v>0.2720319339633761</v>
       </c>
       <c r="C2">
-        <v>0.1269339012637118</v>
+        <v>0.05594294268207989</v>
       </c>
       <c r="D2">
-        <v>0.09641682809591146</v>
+        <v>0.03229110889917308</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2324321975734875</v>
+        <v>0.4137833934051329</v>
       </c>
       <c r="G2">
-        <v>0.1367577018444734</v>
+        <v>0.2620255378731429</v>
       </c>
       <c r="H2">
-        <v>0.1653155380517219</v>
+        <v>0.4511555071653817</v>
       </c>
       <c r="I2">
-        <v>0.127152106564159</v>
+        <v>0.331977983111452</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9071751737884597</v>
+        <v>0.2826643853282746</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6528286592741779</v>
+        <v>1.050901539845839</v>
       </c>
       <c r="O2">
-        <v>0.5856217297194348</v>
+        <v>1.346909471831694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7466790773163154</v>
+        <v>0.2377593010000396</v>
       </c>
       <c r="C3">
-        <v>0.1143801975839978</v>
+        <v>0.0517745992824814</v>
       </c>
       <c r="D3">
-        <v>0.08460195233804058</v>
+        <v>0.02844010956418686</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2233599142648437</v>
+        <v>0.4151881916490048</v>
       </c>
       <c r="G3">
-        <v>0.134953561482547</v>
+        <v>0.2644241519481554</v>
       </c>
       <c r="H3">
-        <v>0.1687429334943076</v>
+        <v>0.4550221083554504</v>
       </c>
       <c r="I3">
-        <v>0.1328910642190522</v>
+        <v>0.336354328377972</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7962913621521324</v>
+        <v>0.2468440625797541</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.662889888600894</v>
+        <v>1.056841322574996</v>
       </c>
       <c r="O3">
-        <v>0.5887180771529756</v>
+        <v>1.35990921690059</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6805060989525487</v>
+        <v>0.2166499071478256</v>
       </c>
       <c r="C4">
-        <v>0.1066482096465364</v>
+        <v>0.04919847600119454</v>
       </c>
       <c r="D4">
-        <v>0.07733039454429758</v>
+        <v>0.02606286690498649</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2182887944344785</v>
+        <v>0.41632312449957</v>
       </c>
       <c r="G4">
-        <v>0.1342608323851984</v>
+        <v>0.2661003526162062</v>
       </c>
       <c r="H4">
-        <v>0.1711340068406955</v>
+        <v>0.4575814952060959</v>
       </c>
       <c r="I4">
-        <v>0.1367474665670727</v>
+        <v>0.3392276114768116</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7280331147349983</v>
+        <v>0.2247539977302893</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6697362346126141</v>
+        <v>1.060835036831321</v>
       </c>
       <c r="O4">
-        <v>0.5920928526894258</v>
+        <v>1.368704070192805</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6535014892101287</v>
+        <v>0.2080317740062583</v>
       </c>
       <c r="C5">
-        <v>0.1034910022004567</v>
+        <v>0.04814455341097812</v>
       </c>
       <c r="D5">
-        <v>0.07436244304045658</v>
+        <v>0.02509098336015114</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2163425894206661</v>
+        <v>0.4168541473307101</v>
       </c>
       <c r="G5">
-        <v>0.1340783864672588</v>
+        <v>0.266834539826398</v>
       </c>
       <c r="H5">
-        <v>0.1721785138990626</v>
+        <v>0.4586710956598701</v>
       </c>
       <c r="I5">
-        <v>0.1384000674176598</v>
+        <v>0.3404453095842932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7001699799191101</v>
+        <v>0.2157286027971708</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6726903994043099</v>
+        <v>1.06254981621062</v>
       </c>
       <c r="O5">
-        <v>0.5938249861565268</v>
+        <v>1.372492473508537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6490149708360491</v>
+        <v>0.2065998001364449</v>
       </c>
       <c r="C6">
-        <v>0.1029663569790387</v>
+        <v>0.04796930315842474</v>
       </c>
       <c r="D6">
-        <v>0.07386931939982588</v>
+        <v>0.02492941505254009</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2160265407834174</v>
+        <v>0.4169464632697029</v>
       </c>
       <c r="G6">
-        <v>0.1340539929535787</v>
+        <v>0.2669595376430749</v>
       </c>
       <c r="H6">
-        <v>0.1723561331010259</v>
+        <v>0.4588548404655981</v>
       </c>
       <c r="I6">
-        <v>0.138679304480819</v>
+        <v>0.3406503345467566</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6955403759016576</v>
+        <v>0.2142285428465698</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6731907429361215</v>
+        <v>1.062839831290816</v>
       </c>
       <c r="O6">
-        <v>0.5941337700065645</v>
+        <v>1.373133882134283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.680142065815005</v>
+        <v>0.2165337434060746</v>
       </c>
       <c r="C7">
-        <v>0.1066056566149598</v>
+        <v>0.0491842790556376</v>
       </c>
       <c r="D7">
-        <v>0.07729038740781391</v>
+        <v>0.02604977237049866</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2182620668584718</v>
+        <v>0.4163300085417632</v>
       </c>
       <c r="G7">
-        <v>0.1342579734297082</v>
+        <v>0.2661100471780316</v>
       </c>
       <c r="H7">
-        <v>0.1711478120225642</v>
+        <v>0.45759600108385</v>
       </c>
       <c r="I7">
-        <v>0.1367694291347057</v>
+        <v>0.3392438442483634</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.727657538660452</v>
+        <v>0.2246323723966128</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6697754156550957</v>
+        <v>1.060857809253839</v>
       </c>
       <c r="O7">
-        <v>0.5921147855413906</v>
+        <v>1.368754334191756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8171692579095406</v>
+        <v>0.2602287949497679</v>
       </c>
       <c r="C8">
-        <v>0.1226101447646073</v>
+        <v>0.0545092191158858</v>
       </c>
       <c r="D8">
-        <v>0.09234636580013245</v>
+        <v>0.0309659573969796</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2291972352917604</v>
+        <v>0.4142112560331412</v>
       </c>
       <c r="G8">
-        <v>0.1360467312109677</v>
+        <v>0.2628103343243708</v>
       </c>
       <c r="H8">
-        <v>0.1664366162951936</v>
+        <v>0.4524502808625783</v>
       </c>
       <c r="I8">
-        <v>0.1290602880505709</v>
+        <v>0.3334482995855286</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.86897669526806</v>
+        <v>0.2703339144138397</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6561565687849935</v>
+        <v>1.052877708447454</v>
       </c>
       <c r="O8">
-        <v>0.586375131252467</v>
+        <v>1.351223057392033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.084940577350267</v>
+        <v>0.3453662785729534</v>
       </c>
       <c r="C9">
-        <v>0.1538227068708267</v>
+        <v>0.06481555059501432</v>
       </c>
       <c r="D9">
-        <v>0.1217557342223046</v>
+        <v>0.04050353077053614</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2548486316344665</v>
+        <v>0.4122164674274629</v>
       </c>
       <c r="G9">
-        <v>0.1430587332702657</v>
+        <v>0.2579555586544302</v>
       </c>
       <c r="H9">
-        <v>0.1595634935809969</v>
+        <v>0.4438278529230502</v>
       </c>
       <c r="I9">
-        <v>0.1167012345550997</v>
+        <v>0.3235607956518258</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.144886897786364</v>
+        <v>0.3591647332554544</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6349401005484765</v>
+        <v>1.039973528127909</v>
       </c>
       <c r="O9">
-        <v>0.5874512478159772</v>
+        <v>1.323294848837307</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.281375964521743</v>
+        <v>0.4075535444003719</v>
       </c>
       <c r="C10">
-        <v>0.1766788434424882</v>
+        <v>0.07230142134436335</v>
       </c>
       <c r="D10">
-        <v>0.1433248419990889</v>
+        <v>0.04744565905095044</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2766158324941017</v>
+        <v>0.4120668538142525</v>
       </c>
       <c r="G10">
-        <v>0.1506517831007486</v>
+        <v>0.255376476409765</v>
       </c>
       <c r="H10">
-        <v>0.1560872547740004</v>
+        <v>0.438385628886337</v>
       </c>
       <c r="I10">
-        <v>0.1094731991200497</v>
+        <v>0.3171973449859511</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.347133484069076</v>
+        <v>0.4239180937684068</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6229651165104144</v>
+        <v>1.032158501836072</v>
       </c>
       <c r="O10">
-        <v>0.5966818714199746</v>
+        <v>1.306709070107814</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.370741679689587</v>
+        <v>0.4357594633601707</v>
       </c>
       <c r="C11">
-        <v>0.1870674519885256</v>
+        <v>0.07568754749435413</v>
       </c>
       <c r="D11">
-        <v>0.1531365510886644</v>
+        <v>0.05058921424051732</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2872347671091191</v>
+        <v>0.4122843834146721</v>
       </c>
       <c r="G11">
-        <v>0.1547066000079056</v>
+        <v>0.2544182221353211</v>
       </c>
       <c r="H11">
-        <v>0.1548778281655814</v>
+        <v>0.4361031395633859</v>
       </c>
       <c r="I11">
-        <v>0.1066263157224263</v>
+        <v>0.3144980952069716</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.439106764691985</v>
+        <v>0.4532593477778448</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6183633950234366</v>
+        <v>1.02896336935104</v>
       </c>
       <c r="O11">
-        <v>0.6029267751316638</v>
+        <v>1.300017967868001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.404588544866868</v>
+        <v>0.4464277004712187</v>
       </c>
       <c r="C12">
-        <v>0.1910006903375745</v>
+        <v>0.07696694728116427</v>
       </c>
       <c r="D12">
-        <v>0.1568525813392796</v>
+        <v>0.05177746470302225</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2913661146452071</v>
+        <v>0.4124077971576057</v>
       </c>
       <c r="G12">
-        <v>0.156334587671509</v>
+        <v>0.2540863123265353</v>
       </c>
       <c r="H12">
-        <v>0.1544759980288859</v>
+        <v>0.4352665646573897</v>
       </c>
       <c r="I12">
-        <v>0.1056151498909088</v>
+        <v>0.3135040826834619</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.473935921791821</v>
+        <v>0.4643528980196834</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6167478718781041</v>
+        <v>1.027805094108253</v>
       </c>
       <c r="O12">
-        <v>0.605604385475047</v>
+        <v>1.297607017028952</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.397298664405923</v>
+        <v>0.4441306828166489</v>
       </c>
       <c r="C13">
-        <v>0.1901536189121771</v>
+        <v>0.07669153390176575</v>
       </c>
       <c r="D13">
-        <v>0.1560522338120336</v>
+        <v>0.05152165020737698</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2904713376895529</v>
+        <v>0.4123793929839934</v>
       </c>
       <c r="G13">
-        <v>0.1559797556913622</v>
+        <v>0.2541564173534638</v>
       </c>
       <c r="H13">
-        <v>0.1545599979380086</v>
+        <v>0.4354455021069157</v>
       </c>
       <c r="I13">
-        <v>0.1058298911279074</v>
+        <v>0.3137169094505357</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.466434714858281</v>
+        <v>0.4619644869684976</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6170900638433068</v>
+        <v>1.02805225389897</v>
       </c>
       <c r="O13">
-        <v>0.6050134959179161</v>
+        <v>1.298120795143333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.373526130671308</v>
+        <v>0.4366374050719628</v>
       </c>
       <c r="C14">
-        <v>0.1873910525750659</v>
+        <v>0.07579286215442949</v>
       </c>
       <c r="D14">
-        <v>0.1534422567177813</v>
+        <v>0.05068701570961309</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2875724053533162</v>
+        <v>0.4122937143959788</v>
       </c>
       <c r="G14">
-        <v>0.1548386451221901</v>
+        <v>0.2543902949651695</v>
       </c>
       <c r="H14">
-        <v>0.1548436281927437</v>
+        <v>0.4360337579687297</v>
       </c>
       <c r="I14">
-        <v>0.1065417656792125</v>
+        <v>0.3144157532226348</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.441972132085908</v>
+        <v>0.4541723727940052</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6182279066808363</v>
+        <v>1.028867042788882</v>
       </c>
       <c r="O14">
-        <v>0.6031406848446039</v>
+        <v>1.29981715567699</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.358965707612157</v>
+        <v>0.4320458759492567</v>
       </c>
       <c r="C15">
-        <v>0.1856988268654618</v>
+        <v>0.07524202567820737</v>
       </c>
       <c r="D15">
-        <v>0.1518436595118686</v>
+        <v>0.05017549655187281</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2858112917831193</v>
+        <v>0.4122465775733701</v>
       </c>
       <c r="G15">
-        <v>0.1541519176938664</v>
+        <v>0.2545375850473732</v>
       </c>
       <c r="H15">
-        <v>0.1550247542832537</v>
+        <v>0.4363976952494539</v>
       </c>
       <c r="I15">
-        <v>0.1069866250747946</v>
+        <v>0.3148474797759224</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.42698836654543</v>
+        <v>0.4493971965189303</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6189415794622164</v>
+        <v>1.02937284790179</v>
       </c>
       <c r="O15">
-        <v>0.6020348381276506</v>
+        <v>1.30087222204277</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.275536259346836</v>
+        <v>0.405708479981115</v>
       </c>
       <c r="C16">
-        <v>0.1759997937022888</v>
+        <v>0.07207973557152059</v>
       </c>
       <c r="D16">
-        <v>0.1426836684832438</v>
+        <v>0.04723992373787667</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2759368850687309</v>
+        <v>0.412058382217019</v>
       </c>
       <c r="G16">
-        <v>0.1503993965451045</v>
+        <v>0.2554434305421935</v>
       </c>
       <c r="H16">
-        <v>0.15617400308534</v>
+        <v>0.438538680289156</v>
       </c>
       <c r="I16">
-        <v>0.1096684182842882</v>
+        <v>0.3173776832883384</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.341122647163019</v>
+        <v>0.421998187625519</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6232833267957503</v>
+        <v>1.032374545170107</v>
       </c>
       <c r="O16">
-        <v>0.5963164897791842</v>
+        <v>1.307163534648623</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.224360121338719</v>
+        <v>0.3895294567278142</v>
       </c>
       <c r="C17">
-        <v>0.1700478884871757</v>
+        <v>0.07013478489336933</v>
       </c>
       <c r="D17">
-        <v>0.1370646627022865</v>
+        <v>0.04543529518215905</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2700678173372353</v>
+        <v>0.4120160576462482</v>
       </c>
       <c r="G17">
-        <v>0.1482554710885395</v>
+        <v>0.2560542327609525</v>
       </c>
       <c r="H17">
-        <v>0.1569761488173143</v>
+        <v>0.4399015696014104</v>
       </c>
       <c r="I17">
-        <v>0.111429010935101</v>
+        <v>0.3189799716926025</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.28844274185613</v>
+        <v>0.4051596955484911</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6261672476858706</v>
+        <v>1.03430810529963</v>
       </c>
       <c r="O17">
-        <v>0.5933454109828915</v>
+        <v>1.311241773211165</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.194925223566571</v>
+        <v>0.3802159066862316</v>
       </c>
       <c r="C18">
-        <v>0.1666236490160173</v>
+        <v>0.0690142954969275</v>
       </c>
       <c r="D18">
-        <v>0.1338327053300929</v>
+        <v>0.04439596414300695</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2667591203905388</v>
+        <v>0.4120185964288439</v>
       </c>
       <c r="G18">
-        <v>0.1470784976168247</v>
+        <v>0.2564257825866392</v>
       </c>
       <c r="H18">
-        <v>0.1574723622415135</v>
+        <v>0.4407036546213874</v>
       </c>
       <c r="I18">
-        <v>0.1124829682567494</v>
+        <v>0.3199199673120994</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.258139527240388</v>
+        <v>0.3954638257934562</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6279052689536258</v>
+        <v>1.035454125752722</v>
       </c>
       <c r="O18">
-        <v>0.5918279220565665</v>
+        <v>1.313667834371046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.184958968446608</v>
+        <v>0.3770611809865443</v>
       </c>
       <c r="C19">
-        <v>0.1654640962735527</v>
+        <v>0.06863460964288493</v>
       </c>
       <c r="D19">
-        <v>0.1327383938167657</v>
+        <v>0.0440438335879918</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2656501553442254</v>
+        <v>0.4120240739732921</v>
       </c>
       <c r="G19">
-        <v>0.1466894573815694</v>
+        <v>0.2565550565165537</v>
       </c>
       <c r="H19">
-        <v>0.1576462762554698</v>
+        <v>0.4409783513535785</v>
       </c>
       <c r="I19">
-        <v>0.1128468129272981</v>
+        <v>0.3202413935794581</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.247878691928236</v>
+        <v>0.3921791365123113</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6285071859922908</v>
+        <v>1.035847972232645</v>
       </c>
       <c r="O19">
-        <v>0.59134644692557</v>
+        <v>1.314503058670326</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.229807845508361</v>
+        <v>0.3912525544126311</v>
       </c>
       <c r="C20">
-        <v>0.1706815641816206</v>
+        <v>0.07034201567530829</v>
       </c>
       <c r="D20">
-        <v>0.137662816964621</v>
+        <v>0.04562754184408391</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2706856014040682</v>
+        <v>0.4120177811003387</v>
       </c>
       <c r="G20">
-        <v>0.1484778402250129</v>
+        <v>0.2559871174940653</v>
       </c>
       <c r="H20">
-        <v>0.1568871342668601</v>
+        <v>0.4397546056136576</v>
       </c>
       <c r="I20">
-        <v>0.1112372928665604</v>
+        <v>0.3188075007047182</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.294050895225666</v>
+        <v>0.4069533065030839</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6258520071388176</v>
+        <v>1.034098768065505</v>
       </c>
       <c r="O20">
-        <v>0.5936417466635646</v>
+        <v>1.310799319847732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.380508494522161</v>
+        <v>0.4388387138493783</v>
       </c>
       <c r="C21">
-        <v>0.1882024996481988</v>
+        <v>0.07605690194505144</v>
       </c>
       <c r="D21">
-        <v>0.1542088506134007</v>
+        <v>0.0509322268633241</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.288420843307442</v>
+        <v>0.4123177666845308</v>
       </c>
       <c r="G21">
-        <v>0.1551712556463301</v>
+        <v>0.254320758826573</v>
       </c>
       <c r="H21">
-        <v>0.1547587731674582</v>
+        <v>0.4358602199464698</v>
       </c>
       <c r="I21">
-        <v>0.106330827302715</v>
+        <v>0.3142097221397364</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.449157319089494</v>
+        <v>0.4564615823892098</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6178902019725285</v>
+        <v>1.02862631858661</v>
       </c>
       <c r="O21">
-        <v>0.6036821325426303</v>
+        <v>1.299315559728811</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.479037736185802</v>
+        <v>0.4698644623110795</v>
       </c>
       <c r="C22">
-        <v>0.1996496449449836</v>
+        <v>0.07977524252773094</v>
       </c>
       <c r="D22">
-        <v>0.165026130129192</v>
+        <v>0.05438660723744704</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.300657653984004</v>
+        <v>0.4127530236150179</v>
       </c>
       <c r="G22">
-        <v>0.16008811867232</v>
+        <v>0.253412178033507</v>
       </c>
       <c r="H22">
-        <v>0.1536964088385631</v>
+        <v>0.4334767736839211</v>
       </c>
       <c r="I22">
-        <v>0.1035157546453309</v>
+        <v>0.3113688081412676</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.550536079900979</v>
+        <v>0.4887166474628089</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6134299534557357</v>
+        <v>1.025350774578605</v>
       </c>
       <c r="O22">
-        <v>0.6120766658970496</v>
+        <v>1.292526190914018</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.426445596817388</v>
+        <v>0.4533125036717252</v>
       </c>
       <c r="C23">
-        <v>0.1935402385120994</v>
+        <v>0.07779224798076712</v>
       </c>
       <c r="D23">
-        <v>0.1592522265253677</v>
+        <v>0.05254410891828343</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2940651099915428</v>
+        <v>0.4124988414329493</v>
       </c>
       <c r="G23">
-        <v>0.1574121644038655</v>
+        <v>0.2538805757370142</v>
       </c>
       <c r="H23">
-        <v>0.1542324240780673</v>
+        <v>0.4347340721702508</v>
       </c>
       <c r="I23">
-        <v>0.1049812006797826</v>
+        <v>0.3128700449023043</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.496425818315544</v>
+        <v>0.4715110447843074</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6157406002772916</v>
+        <v>1.027071486781793</v>
       </c>
       <c r="O23">
-        <v>0.6074222702099519</v>
+        <v>1.296084283753984</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.227344970454027</v>
+        <v>0.3904735793151133</v>
       </c>
       <c r="C24">
-        <v>0.1703950869479911</v>
+        <v>0.07024833383280793</v>
       </c>
       <c r="D24">
-        <v>0.1373923961879342</v>
+        <v>0.04554063281108256</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2704060977163962</v>
+        <v>0.4120169182228182</v>
       </c>
       <c r="G24">
-        <v>0.1483771344241802</v>
+        <v>0.2560173967925792</v>
       </c>
       <c r="H24">
-        <v>0.1569272687753411</v>
+        <v>0.439820990274761</v>
       </c>
       <c r="I24">
-        <v>0.111323838762539</v>
+        <v>0.3188854162220007</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.291515501909544</v>
+        <v>0.406142462267411</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6259942785636312</v>
+        <v>1.0341933022966</v>
       </c>
       <c r="O24">
-        <v>0.5935071809485919</v>
+        <v>1.310999099379586</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.012574394815545</v>
+        <v>0.3223960337371068</v>
       </c>
       <c r="C25">
-        <v>0.1453944347322675</v>
+        <v>0.06204230796497257</v>
       </c>
       <c r="D25">
-        <v>0.1138088224972762</v>
+        <v>0.03793463408625541</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2474230019245098</v>
+        <v>0.4125249470886274</v>
       </c>
       <c r="G25">
-        <v>0.1407559941613883</v>
+        <v>0.2590956343323754</v>
       </c>
       <c r="H25">
-        <v>0.1611564166996899</v>
+        <v>0.4460035086386753</v>
       </c>
       <c r="I25">
-        <v>0.1197322089231871</v>
+        <v>0.3260774303423517</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.070348615497664</v>
+        <v>0.3352212107272408</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6400652985710522</v>
+        <v>1.043171398412277</v>
       </c>
       <c r="O25">
-        <v>0.5857472814148537</v>
+        <v>1.330159520021269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2720319339633761</v>
+        <v>0.8542236232655682</v>
       </c>
       <c r="C2">
-        <v>0.05594294268207989</v>
+        <v>0.1269339012635129</v>
       </c>
       <c r="D2">
-        <v>0.03229110889917308</v>
+        <v>0.09641682809588303</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4137833934051329</v>
+        <v>0.232432197573516</v>
       </c>
       <c r="G2">
-        <v>0.2620255378731429</v>
+        <v>0.1367577018445374</v>
       </c>
       <c r="H2">
-        <v>0.4511555071653817</v>
+        <v>0.1653155380517219</v>
       </c>
       <c r="I2">
-        <v>0.331977983111452</v>
+        <v>0.1271521065641572</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2826643853282746</v>
+        <v>0.9071751737884881</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.050901539845839</v>
+        <v>0.6528286592741779</v>
       </c>
       <c r="O2">
-        <v>1.346909471831694</v>
+        <v>0.5856217297194775</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377593010000396</v>
+        <v>0.7466790773162302</v>
       </c>
       <c r="C3">
-        <v>0.0517745992824814</v>
+        <v>0.1143801975839835</v>
       </c>
       <c r="D3">
-        <v>0.02844010956418686</v>
+        <v>0.08460195233805479</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4151881916490048</v>
+        <v>0.2233599142648117</v>
       </c>
       <c r="G3">
-        <v>0.2644241519481554</v>
+        <v>0.1349535614825399</v>
       </c>
       <c r="H3">
-        <v>0.4550221083554504</v>
+        <v>0.1687429334943076</v>
       </c>
       <c r="I3">
-        <v>0.336354328377972</v>
+        <v>0.1328910642190468</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2468440625797541</v>
+        <v>0.7962913621521182</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.056841322574996</v>
+        <v>0.6628898886008727</v>
       </c>
       <c r="O3">
-        <v>1.35990921690059</v>
+        <v>0.5887180771529614</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2166499071478256</v>
+        <v>0.6805060989525487</v>
       </c>
       <c r="C4">
-        <v>0.04919847600119454</v>
+        <v>0.1066482096466927</v>
       </c>
       <c r="D4">
-        <v>0.02606286690498649</v>
+        <v>0.07733039454418389</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.41632312449957</v>
+        <v>0.2182887944344465</v>
       </c>
       <c r="G4">
-        <v>0.2661003526162062</v>
+        <v>0.1342608323851415</v>
       </c>
       <c r="H4">
-        <v>0.4575814952060959</v>
+        <v>0.1711340068406848</v>
       </c>
       <c r="I4">
-        <v>0.3392276114768116</v>
+        <v>0.1367474665670674</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2247539977302893</v>
+        <v>0.7280331147350125</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.060835036831321</v>
+        <v>0.6697362346125928</v>
       </c>
       <c r="O4">
-        <v>1.368704070192805</v>
+        <v>0.5920928526894187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2080317740062583</v>
+        <v>0.6535014892099866</v>
       </c>
       <c r="C5">
-        <v>0.04814455341097812</v>
+        <v>0.1034910022004567</v>
       </c>
       <c r="D5">
-        <v>0.02509098336015114</v>
+        <v>0.07436244304044948</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4168541473307101</v>
+        <v>0.2163425894206377</v>
       </c>
       <c r="G5">
-        <v>0.266834539826398</v>
+        <v>0.1340783864673227</v>
       </c>
       <c r="H5">
-        <v>0.4586710956598701</v>
+        <v>0.1721785138990661</v>
       </c>
       <c r="I5">
-        <v>0.3404453095842932</v>
+        <v>0.1384000674176562</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2157286027971708</v>
+        <v>0.700169979919167</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.06254981621062</v>
+        <v>0.6726903994043099</v>
       </c>
       <c r="O5">
-        <v>1.372492473508537</v>
+        <v>0.5938249861565765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2065998001364449</v>
+        <v>0.6490149708360491</v>
       </c>
       <c r="C6">
-        <v>0.04796930315842474</v>
+        <v>0.1029663569788113</v>
       </c>
       <c r="D6">
-        <v>0.02492941505254009</v>
+        <v>0.07386931939982588</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4169464632697029</v>
+        <v>0.2160265407834423</v>
       </c>
       <c r="G6">
-        <v>0.2669595376430749</v>
+        <v>0.1340539929536355</v>
       </c>
       <c r="H6">
-        <v>0.4588548404655981</v>
+        <v>0.1723561331010188</v>
       </c>
       <c r="I6">
-        <v>0.3406503345467566</v>
+        <v>0.1386793044808154</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2142285428465698</v>
+        <v>0.6955403759016576</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.062839831290816</v>
+        <v>0.6731907429361073</v>
       </c>
       <c r="O6">
-        <v>1.373133882134283</v>
+        <v>0.5941337700065645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2165337434060746</v>
+        <v>0.6801420658150334</v>
       </c>
       <c r="C7">
-        <v>0.0491842790556376</v>
+        <v>0.1066056566147324</v>
       </c>
       <c r="D7">
-        <v>0.02604977237049866</v>
+        <v>0.07729038740787075</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4163300085417632</v>
+        <v>0.2182620668584718</v>
       </c>
       <c r="G7">
-        <v>0.2661100471780316</v>
+        <v>0.1342579734296514</v>
       </c>
       <c r="H7">
-        <v>0.45759600108385</v>
+        <v>0.1711478120225642</v>
       </c>
       <c r="I7">
-        <v>0.3392438442483634</v>
+        <v>0.1367694291347039</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2246323723966128</v>
+        <v>0.7276575386604662</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.060857809253839</v>
+        <v>0.6697754156550886</v>
       </c>
       <c r="O7">
-        <v>1.368754334191756</v>
+        <v>0.5921147855413906</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2602287949497679</v>
+        <v>0.8171692579095691</v>
       </c>
       <c r="C8">
-        <v>0.0545092191158858</v>
+        <v>0.122610144764792</v>
       </c>
       <c r="D8">
-        <v>0.0309659573969796</v>
+        <v>0.09234636580001876</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4142112560331412</v>
+        <v>0.229197235291732</v>
       </c>
       <c r="G8">
-        <v>0.2628103343243708</v>
+        <v>0.1360467312109677</v>
       </c>
       <c r="H8">
-        <v>0.4524502808625783</v>
+        <v>0.1664366162951936</v>
       </c>
       <c r="I8">
-        <v>0.3334482995855286</v>
+        <v>0.1290602880505816</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2703339144138397</v>
+        <v>0.8689766952681452</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.052877708447454</v>
+        <v>0.6561565687849864</v>
       </c>
       <c r="O8">
-        <v>1.351223057392033</v>
+        <v>0.5863751312525096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3453662785729534</v>
+        <v>1.084940577350238</v>
       </c>
       <c r="C9">
-        <v>0.06481555059501432</v>
+        <v>0.1538227068707982</v>
       </c>
       <c r="D9">
-        <v>0.04050353077053614</v>
+        <v>0.1217557342221625</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4122164674274629</v>
+        <v>0.2548486316344452</v>
       </c>
       <c r="G9">
-        <v>0.2579555586544302</v>
+        <v>0.1430587332703368</v>
       </c>
       <c r="H9">
-        <v>0.4438278529230502</v>
+        <v>0.159563493581004</v>
       </c>
       <c r="I9">
-        <v>0.3235607956518258</v>
+        <v>0.1167012345550873</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3591647332554544</v>
+        <v>1.144886897786506</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.039973528127909</v>
+        <v>0.6349401005484694</v>
       </c>
       <c r="O9">
-        <v>1.323294848837307</v>
+        <v>0.5874512478160483</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4075535444003719</v>
+        <v>1.281375964521857</v>
       </c>
       <c r="C10">
-        <v>0.07230142134436335</v>
+        <v>0.1766788434425166</v>
       </c>
       <c r="D10">
-        <v>0.04744565905095044</v>
+        <v>0.1433248419990889</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4120668538142525</v>
+        <v>0.2766158324941017</v>
       </c>
       <c r="G10">
-        <v>0.255376476409765</v>
+        <v>0.1506517831007486</v>
       </c>
       <c r="H10">
-        <v>0.438385628886337</v>
+        <v>0.1560872547740004</v>
       </c>
       <c r="I10">
-        <v>0.3171973449859511</v>
+        <v>0.1094731991200479</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4239180937684068</v>
+        <v>1.347133484069161</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.032158501836072</v>
+        <v>0.6229651165104073</v>
       </c>
       <c r="O10">
-        <v>1.306709070107814</v>
+        <v>0.5966818714199889</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4357594633601707</v>
+        <v>1.370741679689559</v>
       </c>
       <c r="C11">
-        <v>0.07568754749435413</v>
+        <v>0.1870674519888098</v>
       </c>
       <c r="D11">
-        <v>0.05058921424051732</v>
+        <v>0.1531365510885649</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4122843834146721</v>
+        <v>0.2872347671091191</v>
       </c>
       <c r="G11">
-        <v>0.2544182221353211</v>
+        <v>0.1547066000079766</v>
       </c>
       <c r="H11">
-        <v>0.4361031395633859</v>
+        <v>0.1548778281655743</v>
       </c>
       <c r="I11">
-        <v>0.3144980952069716</v>
+        <v>0.1066263157224281</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4532593477778448</v>
+        <v>1.439106764691985</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.02896336935104</v>
+        <v>0.6183633950234935</v>
       </c>
       <c r="O11">
-        <v>1.300017967868001</v>
+        <v>0.6029267751316638</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4464277004712187</v>
+        <v>1.404588544866954</v>
       </c>
       <c r="C12">
-        <v>0.07696694728116427</v>
+        <v>0.1910006903371482</v>
       </c>
       <c r="D12">
-        <v>0.05177746470302225</v>
+        <v>0.1568525813392085</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4124077971576057</v>
+        <v>0.2913661146452</v>
       </c>
       <c r="G12">
-        <v>0.2540863123265353</v>
+        <v>0.1563345876714592</v>
       </c>
       <c r="H12">
-        <v>0.4352665646573897</v>
+        <v>0.1544759980288788</v>
       </c>
       <c r="I12">
-        <v>0.3135040826834619</v>
+        <v>0.105615149890907</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4643528980196834</v>
+        <v>1.473935921791764</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.027805094108253</v>
+        <v>0.6167478718780899</v>
       </c>
       <c r="O12">
-        <v>1.297607017028952</v>
+        <v>0.6056043854749902</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4441306828166489</v>
+        <v>1.397298664405895</v>
       </c>
       <c r="C13">
-        <v>0.07669153390176575</v>
+        <v>0.1901536189121202</v>
       </c>
       <c r="D13">
-        <v>0.05152165020737698</v>
+        <v>0.1560522338120194</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4123793929839934</v>
+        <v>0.2904713376895458</v>
       </c>
       <c r="G13">
-        <v>0.2541564173534638</v>
+        <v>0.1559797556913622</v>
       </c>
       <c r="H13">
-        <v>0.4354455021069157</v>
+        <v>0.1545599979380086</v>
       </c>
       <c r="I13">
-        <v>0.3137169094505357</v>
+        <v>0.1058298911279216</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4619644869684976</v>
+        <v>1.466434714858394</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.02805225389897</v>
+        <v>0.6170900638432926</v>
       </c>
       <c r="O13">
-        <v>1.298120795143333</v>
+        <v>0.6050134959179161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4366374050719628</v>
+        <v>1.373526130671337</v>
       </c>
       <c r="C14">
-        <v>0.07579286215442949</v>
+        <v>0.1873910525752365</v>
       </c>
       <c r="D14">
-        <v>0.05068701570961309</v>
+        <v>0.1534422567176961</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4122937143959788</v>
+        <v>0.2875724053533162</v>
       </c>
       <c r="G14">
-        <v>0.2543902949651695</v>
+        <v>0.1548386451221262</v>
       </c>
       <c r="H14">
-        <v>0.4360337579687297</v>
+        <v>0.1548436281928574</v>
       </c>
       <c r="I14">
-        <v>0.3144157532226348</v>
+        <v>0.1065417656792249</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4541723727940052</v>
+        <v>1.441972132086022</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.028867042788882</v>
+        <v>0.6182279066808292</v>
       </c>
       <c r="O14">
-        <v>1.29981715567699</v>
+        <v>0.6031406848446039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4320458759492567</v>
+        <v>1.358965707612072</v>
       </c>
       <c r="C15">
-        <v>0.07524202567820737</v>
+        <v>0.1856988268657318</v>
       </c>
       <c r="D15">
-        <v>0.05017549655187281</v>
+        <v>0.1518436595118544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4122465775733701</v>
+        <v>0.2858112917831193</v>
       </c>
       <c r="G15">
-        <v>0.2545375850473732</v>
+        <v>0.1541519176937953</v>
       </c>
       <c r="H15">
-        <v>0.4363976952494539</v>
+        <v>0.1550247542833674</v>
       </c>
       <c r="I15">
-        <v>0.3148474797759224</v>
+        <v>0.1069866250747911</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4493971965189303</v>
+        <v>1.426988366545402</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.02937284790179</v>
+        <v>0.6189415794621524</v>
       </c>
       <c r="O15">
-        <v>1.30087222204277</v>
+        <v>0.6020348381275795</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.405708479981115</v>
+        <v>1.275536259346865</v>
       </c>
       <c r="C16">
-        <v>0.07207973557152059</v>
+        <v>0.1759997937021041</v>
       </c>
       <c r="D16">
-        <v>0.04723992373787667</v>
+        <v>0.1426836684832438</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.412058382217019</v>
+        <v>0.2759368850687451</v>
       </c>
       <c r="G16">
-        <v>0.2554434305421935</v>
+        <v>0.1503993965450263</v>
       </c>
       <c r="H16">
-        <v>0.438538680289156</v>
+        <v>0.15617400308534</v>
       </c>
       <c r="I16">
-        <v>0.3173776832883384</v>
+        <v>0.1096684182842846</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.421998187625519</v>
+        <v>1.341122647162962</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.032374545170107</v>
+        <v>0.6232833267957361</v>
       </c>
       <c r="O16">
-        <v>1.307163534648623</v>
+        <v>0.59631648977917</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3895294567278142</v>
+        <v>1.224360121338748</v>
       </c>
       <c r="C17">
-        <v>0.07013478489336933</v>
+        <v>0.1700478884872325</v>
       </c>
       <c r="D17">
-        <v>0.04543529518215905</v>
+        <v>0.1370646627022012</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4120160576462482</v>
+        <v>0.270067817337214</v>
       </c>
       <c r="G17">
-        <v>0.2560542327609525</v>
+        <v>0.1482554710885395</v>
       </c>
       <c r="H17">
-        <v>0.4399015696014104</v>
+        <v>0.1569761488174208</v>
       </c>
       <c r="I17">
-        <v>0.3189799716926025</v>
+        <v>0.1114290109350975</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4051596955484911</v>
+        <v>1.288442741856045</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.03430810529963</v>
+        <v>0.6261672476859133</v>
       </c>
       <c r="O17">
-        <v>1.311241773211165</v>
+        <v>0.5933454109828347</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3802159066862316</v>
+        <v>1.194925223566571</v>
       </c>
       <c r="C18">
-        <v>0.0690142954969275</v>
+        <v>0.1666236490160031</v>
       </c>
       <c r="D18">
-        <v>0.04439596414300695</v>
+        <v>0.1338327053298656</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4120185964288439</v>
+        <v>0.2667591203905104</v>
       </c>
       <c r="G18">
-        <v>0.2564257825866392</v>
+        <v>0.1470784976168318</v>
       </c>
       <c r="H18">
-        <v>0.4407036546213874</v>
+        <v>0.1574723622414993</v>
       </c>
       <c r="I18">
-        <v>0.3199199673120994</v>
+        <v>0.1124829682567352</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3954638257934562</v>
+        <v>1.258139527240274</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.035454125752722</v>
+        <v>0.6279052689536826</v>
       </c>
       <c r="O18">
-        <v>1.313667834371046</v>
+        <v>0.5918279220565807</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3770611809865443</v>
+        <v>1.184958968446409</v>
       </c>
       <c r="C19">
-        <v>0.06863460964288493</v>
+        <v>0.1654640962733822</v>
       </c>
       <c r="D19">
-        <v>0.0440438335879918</v>
+        <v>0.1327383938168651</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4120240739732921</v>
+        <v>0.2656501553442183</v>
       </c>
       <c r="G19">
-        <v>0.2565550565165537</v>
+        <v>0.1466894573815054</v>
       </c>
       <c r="H19">
-        <v>0.4409783513535785</v>
+        <v>0.1576462762554698</v>
       </c>
       <c r="I19">
-        <v>0.3202413935794581</v>
+        <v>0.1128468129272946</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3921791365123113</v>
+        <v>1.247878691928264</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.035847972232645</v>
+        <v>0.6285071859922766</v>
       </c>
       <c r="O19">
-        <v>1.314503058670326</v>
+        <v>0.5913464469256269</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3912525544126311</v>
+        <v>1.229807845508446</v>
       </c>
       <c r="C20">
-        <v>0.07034201567530829</v>
+        <v>0.1706815641819475</v>
       </c>
       <c r="D20">
-        <v>0.04562754184408391</v>
+        <v>0.1376628169644079</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4120177811003387</v>
+        <v>0.270685601404054</v>
       </c>
       <c r="G20">
-        <v>0.2559871174940653</v>
+        <v>0.1484778402249916</v>
       </c>
       <c r="H20">
-        <v>0.4397546056136576</v>
+        <v>0.156887134266853</v>
       </c>
       <c r="I20">
-        <v>0.3188075007047182</v>
+        <v>0.1112372928665568</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4069533065030839</v>
+        <v>1.294050895225638</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.034098768065505</v>
+        <v>0.6258520071388674</v>
       </c>
       <c r="O20">
-        <v>1.310799319847732</v>
+        <v>0.5936417466635078</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4388387138493783</v>
+        <v>1.380508494522246</v>
       </c>
       <c r="C21">
-        <v>0.07605690194505144</v>
+        <v>0.1882024996486109</v>
       </c>
       <c r="D21">
-        <v>0.0509322268633241</v>
+        <v>0.1542088506133297</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4123177666845308</v>
+        <v>0.2884208433074562</v>
       </c>
       <c r="G21">
-        <v>0.254320758826573</v>
+        <v>0.1551712556463372</v>
       </c>
       <c r="H21">
-        <v>0.4358602199464698</v>
+        <v>0.1547587731674653</v>
       </c>
       <c r="I21">
-        <v>0.3142097221397364</v>
+        <v>0.1063308273027133</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4564615823892098</v>
+        <v>1.449157319089437</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.02862631858661</v>
+        <v>0.6178902019725072</v>
       </c>
       <c r="O21">
-        <v>1.299315559728811</v>
+        <v>0.6036821325425592</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4698644623110795</v>
+        <v>1.479037736185916</v>
       </c>
       <c r="C22">
-        <v>0.07977524252773094</v>
+        <v>0.1996496449451541</v>
       </c>
       <c r="D22">
-        <v>0.05438660723744704</v>
+        <v>0.1650261301291209</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4127530236150179</v>
+        <v>0.300657653984004</v>
       </c>
       <c r="G22">
-        <v>0.253412178033507</v>
+        <v>0.16008811867232</v>
       </c>
       <c r="H22">
-        <v>0.4334767736839211</v>
+        <v>0.1536964088386625</v>
       </c>
       <c r="I22">
-        <v>0.3113688081412676</v>
+        <v>0.1035157546453274</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4887166474628089</v>
+        <v>1.550536079900837</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.025350774578605</v>
+        <v>0.6134299534557357</v>
       </c>
       <c r="O22">
-        <v>1.292526190914018</v>
+        <v>0.6120766658970496</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4533125036717252</v>
+        <v>1.426445596817388</v>
       </c>
       <c r="C23">
-        <v>0.07779224798076712</v>
+        <v>0.1935402385123979</v>
       </c>
       <c r="D23">
-        <v>0.05254410891828343</v>
+        <v>0.1592522265253109</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4124988414329493</v>
+        <v>0.2940651099915499</v>
       </c>
       <c r="G23">
-        <v>0.2538805757370142</v>
+        <v>0.1574121644038087</v>
       </c>
       <c r="H23">
-        <v>0.4347340721702508</v>
+        <v>0.1542324240780673</v>
       </c>
       <c r="I23">
-        <v>0.3128700449023043</v>
+        <v>0.1049812006797808</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4715110447843074</v>
+        <v>1.496425818315515</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.027071486781793</v>
+        <v>0.6157406002772845</v>
       </c>
       <c r="O23">
-        <v>1.296084283753984</v>
+        <v>0.6074222702099092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3904735793151133</v>
+        <v>1.227344970454027</v>
       </c>
       <c r="C24">
-        <v>0.07024833383280793</v>
+        <v>0.1703950869479911</v>
       </c>
       <c r="D24">
-        <v>0.04554063281108256</v>
+        <v>0.137392396187991</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4120169182228182</v>
+        <v>0.270406097716382</v>
       </c>
       <c r="G24">
-        <v>0.2560173967925792</v>
+        <v>0.1483771344242371</v>
       </c>
       <c r="H24">
-        <v>0.439820990274761</v>
+        <v>0.1569272687752132</v>
       </c>
       <c r="I24">
-        <v>0.3188854162220007</v>
+        <v>0.1113238387625248</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.406142462267411</v>
+        <v>1.291515501909515</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.0341933022966</v>
+        <v>0.6259942785636241</v>
       </c>
       <c r="O24">
-        <v>1.310999099379586</v>
+        <v>0.5935071809485919</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3223960337371068</v>
+        <v>1.012574394815516</v>
       </c>
       <c r="C25">
-        <v>0.06204230796497257</v>
+        <v>0.1453944347322675</v>
       </c>
       <c r="D25">
-        <v>0.03793463408625541</v>
+        <v>0.1138088224972762</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4125249470886274</v>
+        <v>0.2474230019245098</v>
       </c>
       <c r="G25">
-        <v>0.2590956343323754</v>
+        <v>0.1407559941614025</v>
       </c>
       <c r="H25">
-        <v>0.4460035086386753</v>
+        <v>0.1611564166995691</v>
       </c>
       <c r="I25">
-        <v>0.3260774303423517</v>
+        <v>0.1197322089231854</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3352212107272408</v>
+        <v>1.07034861549775</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.043171398412277</v>
+        <v>0.6400652985710593</v>
       </c>
       <c r="O25">
-        <v>1.330159520021269</v>
+        <v>0.5857472814147826</v>
       </c>
     </row>
   </sheetData>
